--- a/Test Plan_QA47_Team-6.xlsx
+++ b/Test Plan_QA47_Team-6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noname\SanbercodeQA47-Kelompok-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A77D269-4A18-4DA2-BC72-9493068D143B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3711EB-5AE9-45C1-99E6-55729E735012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="589" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="589" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="387">
   <si>
     <t>PROJECT TITLE              :</t>
   </si>
@@ -1478,6 +1483,66 @@
   <si>
     <t>Menu : Account Login Activities</t>
   </si>
+  <si>
+    <t>Verifikasi menunjukkan harga yang benar seperti subtotal, PPN, biaya pengiriman, total dan produk yang ditambahkan ke keranjang</t>
+  </si>
+  <si>
+    <t>Halaman Home</t>
+  </si>
+  <si>
+    <t>Dapat menampilkan subtotal, PPN, biaya pengiriman, total, dan deskripsi produk</t>
+  </si>
+  <si>
+    <t>Tampilan halaman subtotal, PPN, biaya pengiriman, total, dan deskripsi produk</t>
+  </si>
+  <si>
+    <t>Ade Nisa Nurmalasari</t>
+  </si>
+  <si>
+    <t>Automation Passed</t>
+  </si>
+  <si>
+    <t>Pilih metode pengiriman</t>
+  </si>
+  <si>
+    <t>dapat memilih metode pengiriman</t>
+  </si>
+  <si>
+    <t>Halaman "shipping"</t>
+  </si>
+  <si>
+    <t>Pilih metode pembayaran</t>
+  </si>
+  <si>
+    <t>Dapat memilih metode pembayaran</t>
+  </si>
+  <si>
+    <t>Halaman review and payments</t>
+  </si>
+  <si>
+    <t>Halaman yang menunjukkan hasil pesanan</t>
+  </si>
+  <si>
+    <t>Tampilan halaman yang menunjukkan hasil pesanan</t>
+  </si>
+  <si>
+    <t>Shopping Chart</t>
+  </si>
+  <si>
+    <t>Otomatis mengisi nama dan alamat user</t>
+  </si>
+  <si>
+    <t>nama dan alamat telah terisi secara otomatis</t>
+  </si>
+  <si>
+    <t>Halaman home</t>
+  </si>
+  <si>
+    <t>Menampilkan riwayat pesanan</t>
+  </si>
+  <si>
+    <t>Dapat melihat riwayat pesanan</t>
+  </si>
 </sst>
 </file>
 
@@ -1497,6 +1562,7 @@
       <sz val="10"/>
       <color rgb="FF666666"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1508,6 +1574,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1519,24 +1586,28 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF298700"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1544,6 +1615,7 @@
       <sz val="10"/>
       <color rgb="FF800D03"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1551,6 +1623,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1868,7 +1941,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2067,8 +2140,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="79">
+  <borders count="81">
     <border>
       <left/>
       <right/>
@@ -3010,12 +3089,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="265">
+  <cellXfs count="276">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3370,59 +3469,52 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3432,47 +3524,26 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="25" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="25" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="25" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3484,15 +3555,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3526,98 +3588,111 @@
     <xf numFmtId="0" fontId="22" fillId="20" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3632,10 +3707,61 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3725,28 +3851,34 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3754,7 +3886,127 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4008,6 +4260,1363 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2790825" cy="1714501"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="TextBox 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B08C8A-7BE4-4794-8EAF-7AFADB27D60E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="1514475"/>
+          <a:ext cx="2790825" cy="1714501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Buka link  https://magento.softwaretestingboard.com/ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>- Klik icon keranjang</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>- Masukkan email dan password</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>- Masukkan Nama</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> depan, Nama belakang</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>- Masukkan nama perusahaan</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>- Masukkan kota, provinsi, kode pos, dan negara</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>- Masukkan nomor telepon</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>- Pilih metode pengiriman </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Klik button “proceed to chekout”</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2790825" cy="762000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="TextBox 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EE8B23E-4B20-4D1D-9756-749460204E05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="3609975"/>
+          <a:ext cx="2790825" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>- Klik centang</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> pada kotak di bawah "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Check / Money order"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>- Klik</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> button "Place Order"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2790825" cy="600075"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="TextBox 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDA3373-7274-4A28-BAE1-D041E9D16C17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="4381500"/>
+          <a:ext cx="2790825" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>- Tampilan terimakasih dan nomor pesanan user</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>- Klik</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> button "Continue Shopping"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2790825" cy="1038225"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="TextBox 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B8E88F6-8566-468D-8BF7-1D51DFA4EFDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="5000625"/>
+          <a:ext cx="2790825" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Buka link  https://magento.softwaretestingboard.com/ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>- Klik icon keranjang</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>- Otomatis mengisi data </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>- Pilih metode pengiriman </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Klik button “proceed to chekout”</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2790825" cy="1400175"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="TextBox 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0945DF-01FC-4062-8158-A417A179FE47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="6115050"/>
+          <a:ext cx="2790825" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Klik icon keranjang</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>- Klik button </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>“view and edit cart”</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>- Kembali</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> ke halaman home</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>- Klik</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> button "Sign Out"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Klik</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> button "Sign In"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Pilih barang</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Klik icon keranjang</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Klik button “view and edit cart”</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2790825" cy="762000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="TextBox 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E59FDF0C-3172-4423-8D30-D67D898C9C35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6143625" y="733425"/>
+          <a:ext cx="2790825" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Buka link  https://magento.softwaretestingboard.com/ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>- Klik icon keranjang</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>- Klik “view and edit cart”</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1543050" cy="762000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="TextBox 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B94686-180D-4140-99B2-EB4BC087C818}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020301" y="733425"/>
+          <a:ext cx="1543050" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Radiant Tee</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>- Size</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> : S</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>- Color : Blue</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1543050" cy="762000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="TextBox 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9FCE438-9A5B-4AB0-B24F-04B50E233D45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="5000625"/>
+          <a:ext cx="1543050" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Email : test@gmail.com</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>- Password</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> : test123! </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1543050" cy="762000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="TextBox 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C40D6C64-37EE-49D3-8F05-2538B7F89EAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="6115050"/>
+          <a:ext cx="1543050" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Email : test@gmail.com</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>- Password</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> : test123! </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1543050" cy="762000"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="TextBox 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C5CAFA-6DF6-4C6D-A5BA-686F899ADD4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="3609975"/>
+          <a:ext cx="1543050" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>Radiant Tee</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>- Size</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> : S</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>- Color : Blue</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1543050" cy="2095501"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="TextBox 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1FA6736-1C7A-4820-8083-DD0CB6D5434E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="1514475"/>
+          <a:ext cx="1543050" cy="2095501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Email : test@gmail.com</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Password</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : 12345678</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- First Name : test</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Last Name : test</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Company : test</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Street adress : test</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- City : test</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Province : test</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Postal Code : 12345</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Country : Indonesia</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Phone Number : 08214354645654</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -4230,19 +5839,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="34" customFormat="1" ht="30">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="194" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
       <c r="N1" s="35"/>
@@ -4259,13 +5868,13 @@
       <c r="Y1" s="35"/>
     </row>
     <row r="2" spans="1:25" ht="3" customHeight="1">
-      <c r="A2" s="139"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
+      <c r="A2" s="144"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -4286,17 +5895,17 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" s="33" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="143" t="s">
+      <c r="B3" s="199"/>
+      <c r="C3" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="144"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
@@ -4317,17 +5926,17 @@
       <c r="Y3" s="32"/>
     </row>
     <row r="4" spans="1:25" s="33" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="142"/>
-      <c r="C4" s="143" t="s">
+      <c r="B4" s="199"/>
+      <c r="C4" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
@@ -4348,13 +5957,13 @@
       <c r="Y4" s="32"/>
     </row>
     <row r="5" spans="1:25" ht="6" customHeight="1">
-      <c r="A5" s="139"/>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4375,17 +5984,17 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" s="37" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A6" s="170" t="s">
+      <c r="A6" s="162" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
       <c r="J6" s="36"/>
       <c r="K6" s="36"/>
       <c r="L6" s="36"/>
@@ -4401,20 +6010,20 @@
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="204" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="148"/>
-      <c r="D7" s="150" t="s">
+      <c r="D7" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="151"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="149" t="s">
+      <c r="E7" s="207"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
+      <c r="H7" s="205"/>
+      <c r="I7" s="205"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -4432,20 +6041,20 @@
       <c r="A8" s="85">
         <v>1</v>
       </c>
-      <c r="B8" s="181" t="s">
+      <c r="B8" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="182"/>
-      <c r="D8" s="132" t="s">
+      <c r="C8" s="171"/>
+      <c r="D8" s="177" t="s">
         <v>201</v>
       </c>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="178" t="s">
+      <c r="E8" s="178"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="167"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
@@ -4464,20 +6073,20 @@
       <c r="A9" s="85">
         <v>2</v>
       </c>
-      <c r="B9" s="181" t="s">
+      <c r="B9" s="170" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="182"/>
-      <c r="D9" s="132" t="s">
+      <c r="C9" s="171"/>
+      <c r="D9" s="177" t="s">
         <v>202</v>
       </c>
-      <c r="E9" s="133"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="180" t="s">
+      <c r="E9" s="178"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
@@ -4496,20 +6105,20 @@
       <c r="A10" s="85">
         <v>3</v>
       </c>
-      <c r="B10" s="181" t="s">
+      <c r="B10" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="182"/>
-      <c r="D10" s="132" t="s">
+      <c r="C10" s="171"/>
+      <c r="D10" s="177" t="s">
         <v>203</v>
       </c>
-      <c r="E10" s="133"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="179" t="s">
+      <c r="E10" s="178"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
@@ -4520,25 +6129,25 @@
       <c r="A11" s="85">
         <v>4</v>
       </c>
-      <c r="B11" s="181" t="s">
+      <c r="B11" s="170" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="182"/>
-      <c r="D11" s="132" t="s">
+      <c r="C11" s="171"/>
+      <c r="D11" s="177" t="s">
         <v>204</v>
       </c>
-      <c r="E11" s="133"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="177" t="s">
+      <c r="E11" s="178"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="177"/>
-      <c r="I11" s="177"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
-      <c r="Q11" s="136" t="s">
+      <c r="Q11" s="195" t="s">
         <v>53</v>
       </c>
       <c r="R11" s="88" t="s">
@@ -4554,25 +6163,25 @@
       <c r="A12" s="85">
         <v>5</v>
       </c>
-      <c r="B12" s="181" t="s">
+      <c r="B12" s="170" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="182"/>
-      <c r="D12" s="132" t="s">
+      <c r="C12" s="171"/>
+      <c r="D12" s="177" t="s">
         <v>205</v>
       </c>
-      <c r="E12" s="133"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="187" t="s">
+      <c r="E12" s="178"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="187"/>
-      <c r="I12" s="187"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="176"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
-      <c r="Q12" s="137"/>
+      <c r="Q12" s="196"/>
       <c r="R12" s="91"/>
       <c r="S12" s="92" t="s">
         <v>48</v>
@@ -4581,54 +6190,54 @@
       <c r="U12" s="98"/>
     </row>
     <row r="13" spans="1:25" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="139"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="140"/>
+      <c r="A13" s="144"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="145"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="137"/>
+      <c r="Q13" s="196"/>
       <c r="R13" s="94"/>
-      <c r="S13" s="156" t="s">
+      <c r="S13" s="186" t="s">
         <v>55</v>
       </c>
-      <c r="T13" s="157"/>
+      <c r="T13" s="187"/>
       <c r="U13" s="45">
         <f>T11+T12</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A14" s="183" t="s">
+      <c r="A14" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="184"/>
-      <c r="C14" s="184"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="184"/>
-      <c r="F14" s="184"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="184"/>
-      <c r="I14" s="184"/>
-      <c r="J14" s="184"/>
-      <c r="K14" s="184"/>
-      <c r="L14" s="184"/>
-      <c r="M14" s="184"/>
-      <c r="N14" s="184"/>
-      <c r="O14" s="184"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
+      <c r="L14" s="173"/>
+      <c r="M14" s="173"/>
+      <c r="N14" s="173"/>
+      <c r="O14" s="173"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="137"/>
-      <c r="R14" s="158" t="s">
+      <c r="Q14" s="196"/>
+      <c r="R14" s="183" t="s">
         <v>56</v>
       </c>
       <c r="S14" s="89" t="s">
@@ -4638,32 +6247,32 @@
       <c r="U14" s="38"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A15" s="172" t="s">
+      <c r="A15" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="188" t="s">
+      <c r="B15" s="146" t="s">
         <v>78</v>
       </c>
       <c r="C15" s="148"/>
-      <c r="D15" s="188" t="s">
+      <c r="D15" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="189"/>
+      <c r="E15" s="147"/>
       <c r="F15" s="148"/>
-      <c r="G15" s="185" t="s">
+      <c r="G15" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="186"/>
-      <c r="K15" s="186"/>
-      <c r="L15" s="186"/>
-      <c r="M15" s="186"/>
-      <c r="N15" s="186"/>
-      <c r="O15" s="186"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="175"/>
+      <c r="M15" s="175"/>
+      <c r="N15" s="175"/>
+      <c r="O15" s="175"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="137"/>
-      <c r="R15" s="159"/>
+      <c r="Q15" s="196"/>
+      <c r="R15" s="184"/>
       <c r="S15" s="92" t="s">
         <v>58</v>
       </c>
@@ -4671,12 +6280,12 @@
       <c r="U15" s="39"/>
     </row>
     <row r="16" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A16" s="173"/>
-      <c r="B16" s="190"/>
-      <c r="C16" s="192"/>
-      <c r="D16" s="190"/>
-      <c r="E16" s="191"/>
-      <c r="F16" s="192"/>
+      <c r="A16" s="165"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="151"/>
       <c r="G16" s="3">
         <v>45132</v>
       </c>
@@ -4705,12 +6314,12 @@
         <v>45140</v>
       </c>
       <c r="P16" s="1"/>
-      <c r="Q16" s="137"/>
-      <c r="R16" s="160"/>
-      <c r="S16" s="161" t="s">
+      <c r="Q16" s="196"/>
+      <c r="R16" s="188"/>
+      <c r="S16" s="189" t="s">
         <v>59</v>
       </c>
-      <c r="T16" s="162"/>
+      <c r="T16" s="190"/>
       <c r="U16" s="46">
         <f>T14+T15</f>
         <v>0</v>
@@ -4720,15 +6329,15 @@
       <c r="A17" s="61">
         <v>1</v>
       </c>
-      <c r="B17" s="153" t="s">
+      <c r="B17" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="155"/>
-      <c r="D17" s="153" t="s">
+      <c r="C17" s="154"/>
+      <c r="D17" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="154"/>
-      <c r="F17" s="155"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="154"/>
       <c r="G17" s="26"/>
       <c r="H17" s="60" t="s">
         <v>80</v>
@@ -4741,27 +6350,27 @@
       <c r="N17" s="59"/>
       <c r="O17" s="27"/>
       <c r="P17" s="9"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="163" t="s">
+      <c r="Q17" s="196"/>
+      <c r="R17" s="191" t="s">
         <v>60</v>
       </c>
-      <c r="S17" s="164"/>
-      <c r="T17" s="165"/>
+      <c r="S17" s="192"/>
+      <c r="T17" s="193"/>
       <c r="U17" s="40"/>
     </row>
     <row r="18" spans="1:25" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A18" s="174">
+      <c r="A18" s="141">
         <v>2</v>
       </c>
-      <c r="B18" s="193" t="s">
+      <c r="B18" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="194"/>
-      <c r="D18" s="153" t="s">
+      <c r="C18" s="156"/>
+      <c r="D18" s="152" t="s">
         <v>201</v>
       </c>
-      <c r="E18" s="154"/>
-      <c r="F18" s="155"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="154"/>
       <c r="G18" s="9"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
@@ -4771,26 +6380,26 @@
       <c r="N18" s="9"/>
       <c r="O18" s="27"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="138"/>
-      <c r="R18" s="166" t="s">
+      <c r="Q18" s="197"/>
+      <c r="R18" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="S18" s="167"/>
-      <c r="T18" s="168"/>
+      <c r="S18" s="181"/>
+      <c r="T18" s="182"/>
       <c r="U18" s="41" t="e">
         <f>U13/(U13+U16+U17)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:25" s="10" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A19" s="175"/>
-      <c r="B19" s="195"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="153" t="s">
+      <c r="A19" s="142"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="152" t="s">
         <v>202</v>
       </c>
-      <c r="E19" s="154"/>
-      <c r="F19" s="155"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="154"/>
       <c r="G19" s="9"/>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
@@ -4807,14 +6416,14 @@
       <c r="U19" s="99"/>
     </row>
     <row r="20" spans="1:25" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A20" s="175"/>
-      <c r="B20" s="195"/>
-      <c r="C20" s="196"/>
-      <c r="D20" s="153" t="s">
+      <c r="A20" s="142"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="152" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="154"/>
-      <c r="F20" s="155"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="154"/>
       <c r="G20" s="9"/>
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
@@ -4831,14 +6440,14 @@
       <c r="U20" s="99"/>
     </row>
     <row r="21" spans="1:25" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A21" s="175"/>
-      <c r="B21" s="195"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="153" t="s">
+      <c r="A21" s="142"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="152" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="154"/>
-      <c r="F21" s="155"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="154"/>
       <c r="G21" s="9"/>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
@@ -4848,10 +6457,10 @@
       <c r="N21" s="9"/>
       <c r="O21" s="27"/>
       <c r="P21" s="9"/>
-      <c r="Q21" s="136" t="s">
+      <c r="Q21" s="195" t="s">
         <v>62</v>
       </c>
-      <c r="R21" s="158" t="s">
+      <c r="R21" s="183" t="s">
         <v>54</v>
       </c>
       <c r="S21" s="89" t="s">
@@ -4861,14 +6470,14 @@
       <c r="U21" s="38"/>
     </row>
     <row r="22" spans="1:25" s="10" customFormat="1" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A22" s="176"/>
-      <c r="B22" s="197"/>
-      <c r="C22" s="198"/>
-      <c r="D22" s="153" t="s">
+      <c r="A22" s="143"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="152" t="s">
         <v>205</v>
       </c>
-      <c r="E22" s="154"/>
-      <c r="F22" s="155"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="154"/>
       <c r="G22" s="9"/>
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
@@ -4878,8 +6487,8 @@
       <c r="N22" s="9"/>
       <c r="O22" s="27"/>
       <c r="P22" s="9"/>
-      <c r="Q22" s="137"/>
-      <c r="R22" s="159"/>
+      <c r="Q22" s="196"/>
+      <c r="R22" s="184"/>
       <c r="S22" s="92" t="s">
         <v>48</v>
       </c>
@@ -4887,18 +6496,18 @@
       <c r="U22" s="38"/>
     </row>
     <row r="23" spans="1:25" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A23" s="174">
+      <c r="A23" s="141">
         <v>3</v>
       </c>
-      <c r="B23" s="199" t="s">
+      <c r="B23" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="194"/>
-      <c r="D23" s="153" t="s">
+      <c r="C23" s="156"/>
+      <c r="D23" s="152" t="s">
         <v>201</v>
       </c>
-      <c r="E23" s="154"/>
-      <c r="F23" s="155"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="154"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -4907,26 +6516,26 @@
       <c r="N23" s="29"/>
       <c r="O23" s="27"/>
       <c r="P23" s="9"/>
-      <c r="Q23" s="137"/>
-      <c r="R23" s="169"/>
-      <c r="S23" s="156" t="s">
+      <c r="Q23" s="196"/>
+      <c r="R23" s="185"/>
+      <c r="S23" s="186" t="s">
         <v>55</v>
       </c>
-      <c r="T23" s="157"/>
+      <c r="T23" s="187"/>
       <c r="U23" s="45">
         <f>T21+T22</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:25" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A24" s="175"/>
-      <c r="B24" s="195"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="153" t="s">
+      <c r="A24" s="142"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="158"/>
+      <c r="D24" s="152" t="s">
         <v>202</v>
       </c>
-      <c r="E24" s="154"/>
-      <c r="F24" s="155"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="154"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -4935,8 +6544,8 @@
       <c r="N24" s="29"/>
       <c r="O24" s="27"/>
       <c r="P24" s="9"/>
-      <c r="Q24" s="137"/>
-      <c r="R24" s="158" t="s">
+      <c r="Q24" s="196"/>
+      <c r="R24" s="183" t="s">
         <v>63</v>
       </c>
       <c r="S24" s="89" t="s">
@@ -4946,14 +6555,14 @@
       <c r="U24" s="38"/>
     </row>
     <row r="25" spans="1:25" s="10" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A25" s="175"/>
-      <c r="B25" s="195"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="153" t="s">
+      <c r="A25" s="142"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="152" t="s">
         <v>203</v>
       </c>
-      <c r="E25" s="154"/>
-      <c r="F25" s="155"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="154"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -4962,8 +6571,8 @@
       <c r="N25" s="29"/>
       <c r="O25" s="27"/>
       <c r="P25" s="9"/>
-      <c r="Q25" s="137"/>
-      <c r="R25" s="159"/>
+      <c r="Q25" s="196"/>
+      <c r="R25" s="184"/>
       <c r="S25" s="92" t="s">
         <v>64</v>
       </c>
@@ -4971,14 +6580,14 @@
       <c r="U25" s="39"/>
     </row>
     <row r="26" spans="1:25" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A26" s="175"/>
-      <c r="B26" s="195"/>
-      <c r="C26" s="196"/>
-      <c r="D26" s="153" t="s">
+      <c r="A26" s="142"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="152" t="s">
         <v>204</v>
       </c>
-      <c r="E26" s="154"/>
-      <c r="F26" s="155"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="154"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -4987,26 +6596,26 @@
       <c r="N26" s="29"/>
       <c r="O26" s="27"/>
       <c r="P26" s="9"/>
-      <c r="Q26" s="137"/>
-      <c r="R26" s="160"/>
-      <c r="S26" s="161" t="s">
+      <c r="Q26" s="196"/>
+      <c r="R26" s="188"/>
+      <c r="S26" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="T26" s="162"/>
+      <c r="T26" s="190"/>
       <c r="U26" s="46">
         <f>T24+T25</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:25" s="10" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A27" s="176"/>
-      <c r="B27" s="197"/>
-      <c r="C27" s="198"/>
-      <c r="D27" s="153" t="s">
+      <c r="A27" s="143"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="152" t="s">
         <v>205</v>
       </c>
-      <c r="E27" s="154"/>
-      <c r="F27" s="155"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="154"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -5015,12 +6624,12 @@
       <c r="N27" s="29"/>
       <c r="O27" s="27"/>
       <c r="P27" s="9"/>
-      <c r="Q27" s="137"/>
-      <c r="R27" s="163" t="s">
+      <c r="Q27" s="196"/>
+      <c r="R27" s="191" t="s">
         <v>60</v>
       </c>
-      <c r="S27" s="164"/>
-      <c r="T27" s="165"/>
+      <c r="S27" s="192"/>
+      <c r="T27" s="193"/>
       <c r="U27" s="40">
         <v>0</v>
       </c>
@@ -5033,11 +6642,11 @@
         <v>17</v>
       </c>
       <c r="C28" s="63"/>
-      <c r="D28" s="153" t="s">
+      <c r="D28" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="154"/>
-      <c r="F28" s="155"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="154"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
@@ -5048,12 +6657,12 @@
       <c r="N28" s="30"/>
       <c r="O28" s="31"/>
       <c r="P28" s="9"/>
-      <c r="Q28" s="138"/>
-      <c r="R28" s="166" t="s">
+      <c r="Q28" s="197"/>
+      <c r="R28" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="S28" s="167"/>
-      <c r="T28" s="168"/>
+      <c r="S28" s="181"/>
+      <c r="T28" s="182"/>
       <c r="U28" s="41" t="e">
         <f>U23/(U23+U26+U27)</f>
         <v>#DIV/0!</v>
@@ -31089,17 +32698,42 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="D15:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B18:C22"/>
-    <mergeCell ref="B23:C27"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="Q21:Q28"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="Q11:Q18"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="R24:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="R14:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R18:T18"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A18:A22"/>
@@ -31116,42 +32750,17 @@
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="R14:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="R24:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="R27:T27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="Q21:Q28"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="Q11:Q18"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="D15:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B18:C22"/>
+    <mergeCell ref="B23:C27"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
@@ -31185,16 +32794,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" thickBot="1">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="230" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="205"/>
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="230"/>
+      <c r="H1" s="231"/>
     </row>
     <row r="2" spans="1:8" s="67" customFormat="1" ht="48" customHeight="1" thickBot="1">
       <c r="A2" s="79" t="s">
@@ -31223,16 +32832,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="209" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="220" t="s">
+      <c r="B3" s="210" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="221" t="s">
+      <c r="C3" s="211" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="222"/>
+      <c r="D3" s="214"/>
       <c r="E3" s="76" t="s">
         <v>26</v>
       </c>
@@ -31243,10 +32852,10 @@
       <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A4" s="217"/>
-      <c r="B4" s="220"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="223"/>
+      <c r="A4" s="209"/>
+      <c r="B4" s="210"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="215"/>
       <c r="E4" s="76" t="s">
         <v>28</v>
       </c>
@@ -31257,10 +32866,10 @@
       <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="217"/>
-      <c r="B5" s="220"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="223"/>
+      <c r="A5" s="209"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="212"/>
+      <c r="D5" s="215"/>
       <c r="E5" s="76" t="s">
         <v>136</v>
       </c>
@@ -31271,10 +32880,10 @@
       <c r="H5" s="74"/>
     </row>
     <row r="6" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A6" s="217"/>
-      <c r="B6" s="220"/>
-      <c r="C6" s="207"/>
-      <c r="D6" s="223"/>
+      <c r="A6" s="209"/>
+      <c r="B6" s="210"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="215"/>
       <c r="E6" s="76" t="s">
         <v>137</v>
       </c>
@@ -31285,10 +32894,10 @@
       <c r="H6" s="74"/>
     </row>
     <row r="7" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A7" s="217"/>
-      <c r="B7" s="220"/>
-      <c r="C7" s="207"/>
-      <c r="D7" s="223"/>
+      <c r="A7" s="209"/>
+      <c r="B7" s="210"/>
+      <c r="C7" s="212"/>
+      <c r="D7" s="215"/>
       <c r="E7" s="76" t="s">
         <v>138</v>
       </c>
@@ -31299,10 +32908,10 @@
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A8" s="217"/>
-      <c r="B8" s="220"/>
-      <c r="C8" s="207"/>
-      <c r="D8" s="223"/>
+      <c r="A8" s="209"/>
+      <c r="B8" s="210"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="215"/>
       <c r="E8" s="76" t="s">
         <v>139</v>
       </c>
@@ -31313,10 +32922,10 @@
       <c r="H8" s="74"/>
     </row>
     <row r="9" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A9" s="217"/>
-      <c r="B9" s="220"/>
-      <c r="C9" s="207"/>
-      <c r="D9" s="223"/>
+      <c r="A9" s="209"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="212"/>
+      <c r="D9" s="215"/>
       <c r="E9" s="76" t="s">
         <v>140</v>
       </c>
@@ -31327,10 +32936,10 @@
       <c r="H9" s="74"/>
     </row>
     <row r="10" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A10" s="217"/>
-      <c r="B10" s="220"/>
-      <c r="C10" s="207"/>
-      <c r="D10" s="223"/>
+      <c r="A10" s="209"/>
+      <c r="B10" s="210"/>
+      <c r="C10" s="212"/>
+      <c r="D10" s="215"/>
       <c r="E10" s="76" t="s">
         <v>141</v>
       </c>
@@ -31341,10 +32950,10 @@
       <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A11" s="217"/>
-      <c r="B11" s="220"/>
-      <c r="C11" s="211"/>
-      <c r="D11" s="224"/>
+      <c r="A11" s="209"/>
+      <c r="B11" s="210"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="216"/>
       <c r="E11" s="76" t="s">
         <v>142</v>
       </c>
@@ -31355,16 +32964,16 @@
       <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A12" s="226" t="s">
+      <c r="A12" s="222" t="s">
         <v>184</v>
       </c>
-      <c r="B12" s="212" t="s">
+      <c r="B12" s="220" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="208" t="s">
+      <c r="C12" s="218" t="s">
         <v>192</v>
       </c>
-      <c r="D12" s="225"/>
+      <c r="D12" s="217"/>
       <c r="E12" s="77" t="s">
         <v>30</v>
       </c>
@@ -31375,10 +32984,10 @@
       <c r="H12" s="74"/>
     </row>
     <row r="13" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A13" s="227"/>
-      <c r="B13" s="203"/>
-      <c r="C13" s="206"/>
-      <c r="D13" s="223"/>
+      <c r="A13" s="223"/>
+      <c r="B13" s="221"/>
+      <c r="C13" s="219"/>
+      <c r="D13" s="215"/>
       <c r="E13" s="77" t="s">
         <v>31</v>
       </c>
@@ -31389,38 +32998,38 @@
       <c r="H13" s="74"/>
     </row>
     <row r="14" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A14" s="227"/>
-      <c r="B14" s="203"/>
-      <c r="C14" s="206"/>
-      <c r="D14" s="223"/>
+      <c r="A14" s="223"/>
+      <c r="B14" s="221"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="215"/>
       <c r="E14" s="77" t="s">
         <v>146</v>
       </c>
       <c r="F14" s="72"/>
-      <c r="G14" s="257" t="s">
+      <c r="G14" s="133" t="s">
         <v>286</v>
       </c>
       <c r="H14" s="74"/>
     </row>
     <row r="15" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A15" s="227"/>
-      <c r="B15" s="203"/>
-      <c r="C15" s="206"/>
-      <c r="D15" s="223"/>
+      <c r="A15" s="223"/>
+      <c r="B15" s="221"/>
+      <c r="C15" s="219"/>
+      <c r="D15" s="215"/>
       <c r="E15" s="77" t="s">
         <v>147</v>
       </c>
       <c r="F15" s="72"/>
-      <c r="G15" s="257" t="s">
+      <c r="G15" s="133" t="s">
         <v>287</v>
       </c>
       <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="227"/>
-      <c r="B16" s="203"/>
-      <c r="C16" s="206"/>
-      <c r="D16" s="223"/>
+      <c r="A16" s="223"/>
+      <c r="B16" s="221"/>
+      <c r="C16" s="219"/>
+      <c r="D16" s="215"/>
       <c r="E16" s="77" t="s">
         <v>148</v>
       </c>
@@ -31431,10 +33040,10 @@
       <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A17" s="227"/>
-      <c r="B17" s="203"/>
-      <c r="C17" s="206"/>
-      <c r="D17" s="223"/>
+      <c r="A17" s="223"/>
+      <c r="B17" s="221"/>
+      <c r="C17" s="219"/>
+      <c r="D17" s="215"/>
       <c r="E17" s="77" t="s">
         <v>149</v>
       </c>
@@ -31445,10 +33054,10 @@
       <c r="H17" s="74"/>
     </row>
     <row r="18" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A18" s="227"/>
-      <c r="B18" s="203"/>
-      <c r="C18" s="206"/>
-      <c r="D18" s="223"/>
+      <c r="A18" s="223"/>
+      <c r="B18" s="221"/>
+      <c r="C18" s="219"/>
+      <c r="D18" s="215"/>
       <c r="E18" s="77" t="s">
         <v>150</v>
       </c>
@@ -31459,10 +33068,10 @@
       <c r="H18" s="74"/>
     </row>
     <row r="19" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A19" s="227"/>
-      <c r="B19" s="203"/>
-      <c r="C19" s="206"/>
-      <c r="D19" s="223"/>
+      <c r="A19" s="223"/>
+      <c r="B19" s="221"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="215"/>
       <c r="E19" s="77" t="s">
         <v>151</v>
       </c>
@@ -31473,10 +33082,10 @@
       <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A20" s="227"/>
-      <c r="B20" s="203"/>
-      <c r="C20" s="206"/>
-      <c r="D20" s="223"/>
+      <c r="A20" s="223"/>
+      <c r="B20" s="221"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="215"/>
       <c r="E20" s="77" t="s">
         <v>152</v>
       </c>
@@ -31487,10 +33096,10 @@
       <c r="H20" s="74"/>
     </row>
     <row r="21" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A21" s="227"/>
-      <c r="B21" s="203"/>
-      <c r="C21" s="206"/>
-      <c r="D21" s="223"/>
+      <c r="A21" s="223"/>
+      <c r="B21" s="221"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="215"/>
       <c r="E21" s="77" t="s">
         <v>153</v>
       </c>
@@ -31501,10 +33110,10 @@
       <c r="H21" s="74"/>
     </row>
     <row r="22" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A22" s="227"/>
-      <c r="B22" s="203"/>
-      <c r="C22" s="206"/>
-      <c r="D22" s="223"/>
+      <c r="A22" s="223"/>
+      <c r="B22" s="221"/>
+      <c r="C22" s="219"/>
+      <c r="D22" s="215"/>
       <c r="E22" s="77" t="s">
         <v>154</v>
       </c>
@@ -31515,10 +33124,10 @@
       <c r="H22" s="74"/>
     </row>
     <row r="23" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A23" s="227"/>
-      <c r="B23" s="203"/>
-      <c r="C23" s="206"/>
-      <c r="D23" s="223"/>
+      <c r="A23" s="223"/>
+      <c r="B23" s="221"/>
+      <c r="C23" s="219"/>
+      <c r="D23" s="215"/>
       <c r="E23" s="77" t="s">
         <v>155</v>
       </c>
@@ -31529,24 +33138,24 @@
       <c r="H23" s="74"/>
     </row>
     <row r="24" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A24" s="227"/>
-      <c r="B24" s="203"/>
-      <c r="C24" s="206"/>
-      <c r="D24" s="223"/>
+      <c r="A24" s="223"/>
+      <c r="B24" s="221"/>
+      <c r="C24" s="219"/>
+      <c r="D24" s="215"/>
       <c r="E24" s="77" t="s">
         <v>156</v>
       </c>
       <c r="F24" s="72"/>
-      <c r="G24" s="257" t="s">
+      <c r="G24" s="133" t="s">
         <v>289</v>
       </c>
       <c r="H24" s="74"/>
     </row>
     <row r="25" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A25" s="227"/>
-      <c r="B25" s="203"/>
-      <c r="C25" s="206"/>
-      <c r="D25" s="223"/>
+      <c r="A25" s="223"/>
+      <c r="B25" s="221"/>
+      <c r="C25" s="219"/>
+      <c r="D25" s="215"/>
       <c r="E25" s="77" t="s">
         <v>157</v>
       </c>
@@ -31557,30 +33166,30 @@
       <c r="H25" s="74"/>
     </row>
     <row r="26" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A26" s="227"/>
-      <c r="B26" s="203"/>
-      <c r="C26" s="206"/>
-      <c r="D26" s="223"/>
+      <c r="A26" s="223"/>
+      <c r="B26" s="221"/>
+      <c r="C26" s="219"/>
+      <c r="D26" s="215"/>
       <c r="E26" s="77" t="s">
         <v>158</v>
       </c>
       <c r="F26" s="72"/>
-      <c r="G26" s="257" t="s">
+      <c r="G26" s="133" t="s">
         <v>291</v>
       </c>
       <c r="H26" s="74"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A27" s="217" t="s">
+      <c r="A27" s="209" t="s">
         <v>185</v>
       </c>
-      <c r="B27" s="220" t="s">
+      <c r="B27" s="210" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="219" t="s">
+      <c r="C27" s="226" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="218"/>
+      <c r="D27" s="225"/>
       <c r="E27" s="129" t="s">
         <v>34</v>
       </c>
@@ -31591,10 +33200,10 @@
       <c r="H27" s="74"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A28" s="217"/>
-      <c r="B28" s="220"/>
-      <c r="C28" s="219"/>
-      <c r="D28" s="218"/>
+      <c r="A28" s="209"/>
+      <c r="B28" s="210"/>
+      <c r="C28" s="226"/>
+      <c r="D28" s="225"/>
       <c r="E28" s="129" t="s">
         <v>35</v>
       </c>
@@ -31605,10 +33214,10 @@
       <c r="H28" s="74"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A29" s="217"/>
-      <c r="B29" s="220"/>
-      <c r="C29" s="219"/>
-      <c r="D29" s="218"/>
+      <c r="A29" s="209"/>
+      <c r="B29" s="210"/>
+      <c r="C29" s="226"/>
+      <c r="D29" s="225"/>
       <c r="E29" s="129" t="s">
         <v>159</v>
       </c>
@@ -31619,10 +33228,10 @@
       <c r="H29" s="74"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A30" s="217"/>
-      <c r="B30" s="220"/>
-      <c r="C30" s="219"/>
-      <c r="D30" s="218"/>
+      <c r="A30" s="209"/>
+      <c r="B30" s="210"/>
+      <c r="C30" s="226"/>
+      <c r="D30" s="225"/>
       <c r="E30" s="129" t="s">
         <v>160</v>
       </c>
@@ -31633,10 +33242,10 @@
       <c r="H30" s="74"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A31" s="217"/>
-      <c r="B31" s="220"/>
-      <c r="C31" s="219"/>
-      <c r="D31" s="218"/>
+      <c r="A31" s="209"/>
+      <c r="B31" s="210"/>
+      <c r="C31" s="226"/>
+      <c r="D31" s="225"/>
       <c r="E31" s="129" t="s">
         <v>161</v>
       </c>
@@ -31647,10 +33256,10 @@
       <c r="H31" s="74"/>
     </row>
     <row r="32" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A32" s="217"/>
-      <c r="B32" s="220"/>
-      <c r="C32" s="219"/>
-      <c r="D32" s="218"/>
+      <c r="A32" s="209"/>
+      <c r="B32" s="210"/>
+      <c r="C32" s="226"/>
+      <c r="D32" s="225"/>
       <c r="E32" s="129" t="s">
         <v>162</v>
       </c>
@@ -31661,10 +33270,10 @@
       <c r="H32" s="74"/>
     </row>
     <row r="33" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A33" s="217"/>
-      <c r="B33" s="220"/>
-      <c r="C33" s="219"/>
-      <c r="D33" s="218"/>
+      <c r="A33" s="209"/>
+      <c r="B33" s="210"/>
+      <c r="C33" s="226"/>
+      <c r="D33" s="225"/>
       <c r="E33" s="129" t="s">
         <v>163</v>
       </c>
@@ -31675,10 +33284,10 @@
       <c r="H33" s="74"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A34" s="217"/>
-      <c r="B34" s="220"/>
-      <c r="C34" s="219"/>
-      <c r="D34" s="218"/>
+      <c r="A34" s="209"/>
+      <c r="B34" s="210"/>
+      <c r="C34" s="226"/>
+      <c r="D34" s="225"/>
       <c r="E34" s="129" t="s">
         <v>279</v>
       </c>
@@ -31689,10 +33298,10 @@
       <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A35" s="217"/>
-      <c r="B35" s="220"/>
-      <c r="C35" s="219"/>
-      <c r="D35" s="218"/>
+      <c r="A35" s="209"/>
+      <c r="B35" s="210"/>
+      <c r="C35" s="226"/>
+      <c r="D35" s="225"/>
       <c r="E35" s="129" t="s">
         <v>186</v>
       </c>
@@ -31703,10 +33312,10 @@
       <c r="H35" s="74"/>
     </row>
     <row r="36" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A36" s="217"/>
-      <c r="B36" s="220"/>
-      <c r="C36" s="219"/>
-      <c r="D36" s="218"/>
+      <c r="A36" s="209"/>
+      <c r="B36" s="210"/>
+      <c r="C36" s="226"/>
+      <c r="D36" s="225"/>
       <c r="E36" s="129" t="s">
         <v>187</v>
       </c>
@@ -31717,10 +33326,10 @@
       <c r="H36" s="74"/>
     </row>
     <row r="37" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A37" s="217"/>
-      <c r="B37" s="220"/>
-      <c r="C37" s="219"/>
-      <c r="D37" s="218"/>
+      <c r="A37" s="209"/>
+      <c r="B37" s="210"/>
+      <c r="C37" s="226"/>
+      <c r="D37" s="225"/>
       <c r="E37" s="129" t="s">
         <v>188</v>
       </c>
@@ -31731,10 +33340,10 @@
       <c r="H37" s="74"/>
     </row>
     <row r="38" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A38" s="217"/>
-      <c r="B38" s="220"/>
-      <c r="C38" s="219"/>
-      <c r="D38" s="218"/>
+      <c r="A38" s="209"/>
+      <c r="B38" s="210"/>
+      <c r="C38" s="226"/>
+      <c r="D38" s="225"/>
       <c r="E38" s="129" t="s">
         <v>189</v>
       </c>
@@ -31745,10 +33354,10 @@
       <c r="H38" s="74"/>
     </row>
     <row r="39" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A39" s="217"/>
-      <c r="B39" s="220"/>
-      <c r="C39" s="219"/>
-      <c r="D39" s="218"/>
+      <c r="A39" s="209"/>
+      <c r="B39" s="210"/>
+      <c r="C39" s="226"/>
+      <c r="D39" s="225"/>
       <c r="E39" s="129" t="s">
         <v>190</v>
       </c>
@@ -31759,16 +33368,16 @@
       <c r="H39" s="74"/>
     </row>
     <row r="40" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A40" s="206" t="s">
+      <c r="A40" s="219" t="s">
         <v>179</v>
       </c>
-      <c r="B40" s="203" t="s">
+      <c r="B40" s="221" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="207" t="s">
+      <c r="C40" s="212" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="203"/>
+      <c r="D40" s="221"/>
       <c r="E40" s="114" t="s">
         <v>36</v>
       </c>
@@ -31779,10 +33388,10 @@
       <c r="H40" s="115"/>
     </row>
     <row r="41" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A41" s="206"/>
-      <c r="B41" s="203"/>
-      <c r="C41" s="207"/>
-      <c r="D41" s="203"/>
+      <c r="A41" s="219"/>
+      <c r="B41" s="221"/>
+      <c r="C41" s="212"/>
+      <c r="D41" s="221"/>
       <c r="E41" s="114" t="s">
         <v>37</v>
       </c>
@@ -31793,10 +33402,10 @@
       <c r="H41" s="115"/>
     </row>
     <row r="42" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A42" s="206"/>
-      <c r="B42" s="203"/>
-      <c r="C42" s="207"/>
-      <c r="D42" s="203"/>
+      <c r="A42" s="219"/>
+      <c r="B42" s="221"/>
+      <c r="C42" s="212"/>
+      <c r="D42" s="221"/>
       <c r="E42" s="114" t="s">
         <v>164</v>
       </c>
@@ -31807,10 +33416,10 @@
       <c r="H42" s="115"/>
     </row>
     <row r="43" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A43" s="206"/>
-      <c r="B43" s="203"/>
-      <c r="C43" s="207"/>
-      <c r="D43" s="203"/>
+      <c r="A43" s="219"/>
+      <c r="B43" s="221"/>
+      <c r="C43" s="212"/>
+      <c r="D43" s="221"/>
       <c r="E43" s="114" t="s">
         <v>165</v>
       </c>
@@ -31821,10 +33430,10 @@
       <c r="H43" s="115"/>
     </row>
     <row r="44" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A44" s="206"/>
-      <c r="B44" s="203"/>
-      <c r="C44" s="207"/>
-      <c r="D44" s="203"/>
+      <c r="A44" s="219"/>
+      <c r="B44" s="221"/>
+      <c r="C44" s="212"/>
+      <c r="D44" s="221"/>
       <c r="E44" s="114" t="s">
         <v>166</v>
       </c>
@@ -31835,10 +33444,10 @@
       <c r="H44" s="115"/>
     </row>
     <row r="45" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A45" s="206"/>
-      <c r="B45" s="203"/>
-      <c r="C45" s="207"/>
-      <c r="D45" s="203"/>
+      <c r="A45" s="219"/>
+      <c r="B45" s="221"/>
+      <c r="C45" s="212"/>
+      <c r="D45" s="221"/>
       <c r="E45" s="114" t="s">
         <v>167</v>
       </c>
@@ -31849,10 +33458,10 @@
       <c r="H45" s="115"/>
     </row>
     <row r="46" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A46" s="206"/>
-      <c r="B46" s="203"/>
-      <c r="C46" s="207"/>
-      <c r="D46" s="203"/>
+      <c r="A46" s="219"/>
+      <c r="B46" s="221"/>
+      <c r="C46" s="212"/>
+      <c r="D46" s="221"/>
       <c r="E46" s="114" t="s">
         <v>168</v>
       </c>
@@ -31863,16 +33472,16 @@
       <c r="H46" s="115"/>
     </row>
     <row r="47" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A47" s="208" t="s">
+      <c r="A47" s="218" t="s">
         <v>180</v>
       </c>
-      <c r="B47" s="212" t="s">
+      <c r="B47" s="220" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="210" t="s">
+      <c r="C47" s="233" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="212"/>
+      <c r="D47" s="220"/>
       <c r="E47" s="78" t="s">
         <v>38</v>
       </c>
@@ -31883,10 +33492,10 @@
       <c r="H47" s="74"/>
     </row>
     <row r="48" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A48" s="206"/>
-      <c r="B48" s="203"/>
-      <c r="C48" s="207"/>
-      <c r="D48" s="203"/>
+      <c r="A48" s="219"/>
+      <c r="B48" s="221"/>
+      <c r="C48" s="212"/>
+      <c r="D48" s="221"/>
       <c r="E48" s="78" t="s">
         <v>39</v>
       </c>
@@ -31897,10 +33506,10 @@
       <c r="H48" s="74"/>
     </row>
     <row r="49" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A49" s="206"/>
-      <c r="B49" s="203"/>
-      <c r="C49" s="207"/>
-      <c r="D49" s="203"/>
+      <c r="A49" s="219"/>
+      <c r="B49" s="221"/>
+      <c r="C49" s="212"/>
+      <c r="D49" s="221"/>
       <c r="E49" s="78" t="s">
         <v>169</v>
       </c>
@@ -31911,10 +33520,10 @@
       <c r="H49" s="74"/>
     </row>
     <row r="50" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A50" s="206"/>
-      <c r="B50" s="203"/>
-      <c r="C50" s="207"/>
-      <c r="D50" s="203"/>
+      <c r="A50" s="219"/>
+      <c r="B50" s="221"/>
+      <c r="C50" s="212"/>
+      <c r="D50" s="221"/>
       <c r="E50" s="78" t="s">
         <v>170</v>
       </c>
@@ -31925,10 +33534,10 @@
       <c r="H50" s="74"/>
     </row>
     <row r="51" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A51" s="206"/>
-      <c r="B51" s="203"/>
-      <c r="C51" s="207"/>
-      <c r="D51" s="203"/>
+      <c r="A51" s="219"/>
+      <c r="B51" s="221"/>
+      <c r="C51" s="212"/>
+      <c r="D51" s="221"/>
       <c r="E51" s="78" t="s">
         <v>171</v>
       </c>
@@ -31939,10 +33548,10 @@
       <c r="H51" s="74"/>
     </row>
     <row r="52" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A52" s="206"/>
-      <c r="B52" s="203"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="203"/>
+      <c r="A52" s="219"/>
+      <c r="B52" s="221"/>
+      <c r="C52" s="212"/>
+      <c r="D52" s="221"/>
       <c r="E52" s="78" t="s">
         <v>172</v>
       </c>
@@ -31953,10 +33562,10 @@
       <c r="H52" s="74"/>
     </row>
     <row r="53" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A53" s="206"/>
-      <c r="B53" s="203"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="203"/>
+      <c r="A53" s="219"/>
+      <c r="B53" s="221"/>
+      <c r="C53" s="212"/>
+      <c r="D53" s="221"/>
       <c r="E53" s="78" t="s">
         <v>173</v>
       </c>
@@ -31967,10 +33576,10 @@
       <c r="H53" s="74"/>
     </row>
     <row r="54" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A54" s="206"/>
-      <c r="B54" s="203"/>
-      <c r="C54" s="211"/>
-      <c r="D54" s="213"/>
+      <c r="A54" s="219"/>
+      <c r="B54" s="221"/>
+      <c r="C54" s="213"/>
+      <c r="D54" s="224"/>
       <c r="E54" s="78" t="s">
         <v>174</v>
       </c>
@@ -31981,12 +33590,12 @@
       <c r="H54" s="74"/>
     </row>
     <row r="55" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A55" s="206"/>
-      <c r="B55" s="203"/>
-      <c r="C55" s="210" t="s">
+      <c r="A55" s="219"/>
+      <c r="B55" s="221"/>
+      <c r="C55" s="233" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="212"/>
+      <c r="D55" s="220"/>
       <c r="E55" s="78" t="s">
         <v>175</v>
       </c>
@@ -31997,10 +33606,10 @@
       <c r="H55" s="74"/>
     </row>
     <row r="56" spans="1:8" s="25" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A56" s="209"/>
-      <c r="B56" s="213"/>
-      <c r="C56" s="211"/>
-      <c r="D56" s="213"/>
+      <c r="A56" s="232"/>
+      <c r="B56" s="224"/>
+      <c r="C56" s="213"/>
+      <c r="D56" s="224"/>
       <c r="E56" s="78" t="s">
         <v>176</v>
       </c>
@@ -32011,14 +33620,14 @@
       <c r="H56" s="74"/>
     </row>
     <row r="57" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A57" s="214" t="s">
+      <c r="A57" s="234" t="s">
         <v>181</v>
       </c>
-      <c r="B57" s="200"/>
-      <c r="C57" s="200" t="s">
+      <c r="B57" s="227"/>
+      <c r="C57" s="227" t="s">
         <v>89</v>
       </c>
-      <c r="D57" s="200"/>
+      <c r="D57" s="227"/>
       <c r="E57" s="82"/>
       <c r="F57" s="83"/>
       <c r="G57" s="84" t="s">
@@ -32027,10 +33636,10 @@
       <c r="H57" s="84"/>
     </row>
     <row r="58" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A58" s="215"/>
-      <c r="B58" s="201"/>
-      <c r="C58" s="201"/>
-      <c r="D58" s="201"/>
+      <c r="A58" s="235"/>
+      <c r="B58" s="228"/>
+      <c r="C58" s="228"/>
+      <c r="D58" s="228"/>
       <c r="E58" s="82"/>
       <c r="F58" s="83"/>
       <c r="G58" s="84" t="s">
@@ -32039,10 +33648,10 @@
       <c r="H58" s="84"/>
     </row>
     <row r="59" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A59" s="215"/>
-      <c r="B59" s="201"/>
-      <c r="C59" s="201"/>
-      <c r="D59" s="201"/>
+      <c r="A59" s="235"/>
+      <c r="B59" s="228"/>
+      <c r="C59" s="228"/>
+      <c r="D59" s="228"/>
       <c r="E59" s="82"/>
       <c r="F59" s="83"/>
       <c r="G59" s="84" t="s">
@@ -32051,10 +33660,10 @@
       <c r="H59" s="84"/>
     </row>
     <row r="60" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A60" s="216"/>
-      <c r="B60" s="202"/>
-      <c r="C60" s="202"/>
-      <c r="D60" s="202"/>
+      <c r="A60" s="236"/>
+      <c r="B60" s="229"/>
+      <c r="C60" s="229"/>
+      <c r="D60" s="229"/>
       <c r="E60" s="82"/>
       <c r="F60" s="83"/>
       <c r="G60" s="84" t="s">
@@ -32063,14 +33672,14 @@
       <c r="H60" s="84"/>
     </row>
     <row r="61" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A61" s="214" t="s">
+      <c r="A61" s="234" t="s">
         <v>182</v>
       </c>
-      <c r="B61" s="200"/>
-      <c r="C61" s="200" t="s">
+      <c r="B61" s="227"/>
+      <c r="C61" s="227" t="s">
         <v>90</v>
       </c>
-      <c r="D61" s="200"/>
+      <c r="D61" s="227"/>
       <c r="E61" s="82"/>
       <c r="F61" s="83"/>
       <c r="G61" s="84" t="s">
@@ -32079,10 +33688,10 @@
       <c r="H61" s="84"/>
     </row>
     <row r="62" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A62" s="215"/>
-      <c r="B62" s="201"/>
-      <c r="C62" s="201"/>
-      <c r="D62" s="201"/>
+      <c r="A62" s="235"/>
+      <c r="B62" s="228"/>
+      <c r="C62" s="228"/>
+      <c r="D62" s="228"/>
       <c r="E62" s="82"/>
       <c r="F62" s="83"/>
       <c r="G62" s="84" t="s">
@@ -32091,10 +33700,10 @@
       <c r="H62" s="84"/>
     </row>
     <row r="63" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A63" s="215"/>
-      <c r="B63" s="201"/>
-      <c r="C63" s="201"/>
-      <c r="D63" s="201"/>
+      <c r="A63" s="235"/>
+      <c r="B63" s="228"/>
+      <c r="C63" s="228"/>
+      <c r="D63" s="228"/>
       <c r="E63" s="82"/>
       <c r="F63" s="83"/>
       <c r="G63" s="84" t="s">
@@ -32103,10 +33712,10 @@
       <c r="H63" s="84"/>
     </row>
     <row r="64" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A64" s="215"/>
-      <c r="B64" s="201"/>
-      <c r="C64" s="201"/>
-      <c r="D64" s="201"/>
+      <c r="A64" s="235"/>
+      <c r="B64" s="228"/>
+      <c r="C64" s="228"/>
+      <c r="D64" s="228"/>
       <c r="E64" s="82"/>
       <c r="F64" s="83"/>
       <c r="G64" s="84" t="s">
@@ -32115,10 +33724,10 @@
       <c r="H64" s="84"/>
     </row>
     <row r="65" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A65" s="215"/>
-      <c r="B65" s="201"/>
-      <c r="C65" s="201"/>
-      <c r="D65" s="201"/>
+      <c r="A65" s="235"/>
+      <c r="B65" s="228"/>
+      <c r="C65" s="228"/>
+      <c r="D65" s="228"/>
       <c r="E65" s="82"/>
       <c r="F65" s="83"/>
       <c r="G65" s="84" t="s">
@@ -32127,10 +33736,10 @@
       <c r="H65" s="84"/>
     </row>
     <row r="66" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A66" s="215"/>
-      <c r="B66" s="201"/>
-      <c r="C66" s="201"/>
-      <c r="D66" s="201"/>
+      <c r="A66" s="235"/>
+      <c r="B66" s="228"/>
+      <c r="C66" s="228"/>
+      <c r="D66" s="228"/>
       <c r="E66" s="82"/>
       <c r="F66" s="83"/>
       <c r="G66" s="84" t="s">
@@ -32139,10 +33748,10 @@
       <c r="H66" s="84"/>
     </row>
     <row r="67" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A67" s="216"/>
-      <c r="B67" s="202"/>
-      <c r="C67" s="202"/>
-      <c r="D67" s="202"/>
+      <c r="A67" s="236"/>
+      <c r="B67" s="229"/>
+      <c r="C67" s="229"/>
+      <c r="D67" s="229"/>
       <c r="E67" s="82"/>
       <c r="F67" s="83"/>
       <c r="G67" s="84" t="s">
@@ -32152,21 +33761,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="D3:D11"/>
-    <mergeCell ref="D12:D26"/>
-    <mergeCell ref="C12:C26"/>
-    <mergeCell ref="B12:B26"/>
-    <mergeCell ref="A12:A26"/>
-    <mergeCell ref="D40:D46"/>
-    <mergeCell ref="D47:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="A27:A39"/>
-    <mergeCell ref="D27:D39"/>
-    <mergeCell ref="C27:C39"/>
-    <mergeCell ref="B27:B39"/>
     <mergeCell ref="B57:B60"/>
     <mergeCell ref="B61:B67"/>
     <mergeCell ref="B40:B46"/>
@@ -32183,6 +33777,21 @@
     <mergeCell ref="C61:C67"/>
     <mergeCell ref="D57:D60"/>
     <mergeCell ref="D61:D67"/>
+    <mergeCell ref="D40:D46"/>
+    <mergeCell ref="D47:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A27:A39"/>
+    <mergeCell ref="D27:D39"/>
+    <mergeCell ref="C27:C39"/>
+    <mergeCell ref="B27:B39"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="D12:D26"/>
+    <mergeCell ref="C12:C26"/>
+    <mergeCell ref="B12:B26"/>
+    <mergeCell ref="A12:A26"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <hyperlinks>
@@ -32232,21 +33841,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="20" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="237" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="230"/>
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="239"/>
     </row>
     <row r="2" spans="1:14" ht="5.25" customHeight="1"/>
     <row r="3" spans="1:14" s="13" customFormat="1" ht="21.75" customHeight="1">
@@ -32352,18 +33961,18 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="L4:L100">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH("PASSED",L4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="30" priority="4" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",L4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:M100">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="Automation Passed">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="Automation Passed">
       <formula>NOT(ISERROR(SEARCH("Automation Passed",L4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="Not Passed">
+    <cfRule type="containsText" dxfId="28" priority="2" operator="containsText" text="Not Passed">
       <formula>NOT(ISERROR(SEARCH("Not Passed",L4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32397,7 +34006,7 @@
   </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E25" sqref="E25"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
@@ -32423,32 +34032,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="21" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="242" t="s">
         <v>366</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="234"/>
-      <c r="L1" s="234"/>
-      <c r="M1" s="234"/>
-      <c r="N1" s="235"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="243"/>
+      <c r="I1" s="243"/>
+      <c r="J1" s="243"/>
+      <c r="K1" s="243"/>
+      <c r="L1" s="243"/>
+      <c r="M1" s="243"/>
+      <c r="N1" s="244"/>
     </row>
     <row r="2" spans="1:15" ht="5.25" customHeight="1"/>
     <row r="3" spans="1:15" s="13" customFormat="1" ht="21.75" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="231" t="s">
+      <c r="B3" s="240" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="232"/>
+      <c r="C3" s="241"/>
       <c r="D3" s="58" t="s">
         <v>193</v>
       </c>
@@ -32490,22 +34099,22 @@
       <c r="A4" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="258" t="s">
+      <c r="B4" s="134" t="s">
         <v>292</v>
       </c>
-      <c r="C4" s="257" t="s">
+      <c r="C4" s="133" t="s">
         <v>293</v>
       </c>
       <c r="D4" s="131" t="s">
         <v>206</v>
       </c>
-      <c r="E4" s="258" t="s">
+      <c r="E4" s="134" t="s">
         <v>294</v>
       </c>
-      <c r="F4" s="258" t="s">
+      <c r="F4" s="134" t="s">
         <v>295</v>
       </c>
-      <c r="G4" s="259" t="s">
+      <c r="G4" s="135" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="120" t="s">
@@ -32517,16 +34126,16 @@
       <c r="J4" s="72" t="s">
         <v>297</v>
       </c>
-      <c r="K4" s="260" t="s">
+      <c r="K4" s="136" t="s">
         <v>298</v>
       </c>
-      <c r="L4" s="261" t="s">
+      <c r="L4" s="137" t="s">
         <v>299</v>
       </c>
       <c r="M4" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="262" t="s">
+      <c r="N4" s="138" t="s">
         <v>47</v>
       </c>
     </row>
@@ -32534,25 +34143,25 @@
       <c r="A5" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="258" t="s">
+      <c r="B5" s="134" t="s">
         <v>292</v>
       </c>
-      <c r="C5" s="257" t="s">
+      <c r="C5" s="133" t="s">
         <v>300</v>
       </c>
       <c r="D5" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="258" t="s">
+      <c r="E5" s="134" t="s">
         <v>294</v>
       </c>
-      <c r="F5" s="258" t="s">
+      <c r="F5" s="134" t="s">
         <v>301</v>
       </c>
-      <c r="G5" s="263" t="s">
+      <c r="G5" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="258" t="s">
+      <c r="H5" s="134" t="s">
         <v>302</v>
       </c>
       <c r="I5" s="72" t="s">
@@ -32561,16 +34170,16 @@
       <c r="J5" s="72" t="s">
         <v>304</v>
       </c>
-      <c r="K5" s="260" t="s">
+      <c r="K5" s="136" t="s">
         <v>298</v>
       </c>
-      <c r="L5" s="260" t="s">
+      <c r="L5" s="136" t="s">
         <v>305</v>
       </c>
-      <c r="M5" s="264" t="s">
+      <c r="M5" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="262" t="s">
+      <c r="N5" s="138" t="s">
         <v>47</v>
       </c>
     </row>
@@ -32578,22 +34187,22 @@
       <c r="A6" s="124" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="258" t="s">
+      <c r="B6" s="134" t="s">
         <v>292</v>
       </c>
-      <c r="C6" s="257" t="s">
+      <c r="C6" s="133" t="s">
         <v>306</v>
       </c>
       <c r="D6" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="258" t="s">
+      <c r="E6" s="134" t="s">
         <v>294</v>
       </c>
-      <c r="F6" s="258" t="s">
+      <c r="F6" s="134" t="s">
         <v>307</v>
       </c>
-      <c r="G6" s="263" t="s">
+      <c r="G6" s="139" t="s">
         <v>29</v>
       </c>
       <c r="H6" s="120" t="s">
@@ -32605,16 +34214,16 @@
       <c r="J6" s="72" t="s">
         <v>309</v>
       </c>
-      <c r="K6" s="260" t="s">
+      <c r="K6" s="136" t="s">
         <v>298</v>
       </c>
-      <c r="L6" s="260" t="s">
+      <c r="L6" s="136" t="s">
         <v>310</v>
       </c>
-      <c r="M6" s="264" t="s">
+      <c r="M6" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="262" t="s">
+      <c r="N6" s="138" t="s">
         <v>47</v>
       </c>
     </row>
@@ -32622,22 +34231,22 @@
       <c r="A7" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="258" t="s">
+      <c r="B7" s="134" t="s">
         <v>292</v>
       </c>
-      <c r="C7" s="257" t="s">
+      <c r="C7" s="133" t="s">
         <v>311</v>
       </c>
       <c r="D7" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="E7" s="258" t="s">
+      <c r="E7" s="134" t="s">
         <v>294</v>
       </c>
-      <c r="F7" s="258" t="s">
+      <c r="F7" s="134" t="s">
         <v>312</v>
       </c>
-      <c r="G7" s="263" t="s">
+      <c r="G7" s="139" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="120" t="s">
@@ -32649,16 +34258,16 @@
       <c r="J7" s="72" t="s">
         <v>314</v>
       </c>
-      <c r="K7" s="260" t="s">
+      <c r="K7" s="136" t="s">
         <v>298</v>
       </c>
-      <c r="L7" s="260" t="s">
+      <c r="L7" s="136" t="s">
         <v>315</v>
       </c>
-      <c r="M7" s="264" t="s">
+      <c r="M7" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="262" t="s">
+      <c r="N7" s="138" t="s">
         <v>47</v>
       </c>
     </row>
@@ -32669,19 +34278,19 @@
       <c r="B8" s="126" t="s">
         <v>316</v>
       </c>
-      <c r="C8" s="257" t="s">
+      <c r="C8" s="133" t="s">
         <v>317</v>
       </c>
       <c r="D8" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="E8" s="258" t="s">
+      <c r="E8" s="134" t="s">
         <v>318</v>
       </c>
       <c r="F8" s="124" t="s">
         <v>319</v>
       </c>
-      <c r="G8" s="259" t="s">
+      <c r="G8" s="135" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="126"/>
@@ -32691,16 +34300,16 @@
       <c r="J8" s="124" t="s">
         <v>320</v>
       </c>
-      <c r="K8" s="260" t="s">
+      <c r="K8" s="136" t="s">
         <v>298</v>
       </c>
       <c r="L8" s="127" t="s">
         <v>321</v>
       </c>
-      <c r="M8" s="264" t="s">
+      <c r="M8" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="262" t="s">
+      <c r="N8" s="138" t="s">
         <v>47</v>
       </c>
     </row>
@@ -32711,19 +34320,19 @@
       <c r="B9" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="257" t="s">
+      <c r="C9" s="133" t="s">
         <v>322</v>
       </c>
       <c r="D9" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="E9" s="258" t="s">
+      <c r="E9" s="134" t="s">
         <v>318</v>
       </c>
       <c r="F9" s="124" t="s">
         <v>323</v>
       </c>
-      <c r="G9" s="259" t="s">
+      <c r="G9" s="135" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="126"/>
@@ -32733,7 +34342,7 @@
       <c r="J9" s="72" t="s">
         <v>324</v>
       </c>
-      <c r="K9" s="260" t="s">
+      <c r="K9" s="136" t="s">
         <v>298</v>
       </c>
       <c r="L9" s="127" t="s">
@@ -32742,7 +34351,7 @@
       <c r="M9" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="262" t="s">
+      <c r="N9" s="138" t="s">
         <v>47</v>
       </c>
     </row>
@@ -32753,19 +34362,19 @@
       <c r="B10" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="257" t="s">
+      <c r="C10" s="133" t="s">
         <v>326</v>
       </c>
       <c r="D10" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="E10" s="258" t="s">
+      <c r="E10" s="134" t="s">
         <v>318</v>
       </c>
       <c r="F10" s="124" t="s">
         <v>327</v>
       </c>
-      <c r="G10" s="259" t="s">
+      <c r="G10" s="135" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="126" t="s">
@@ -32777,7 +34386,7 @@
       <c r="J10" s="72" t="s">
         <v>329</v>
       </c>
-      <c r="K10" s="260" t="s">
+      <c r="K10" s="136" t="s">
         <v>298</v>
       </c>
       <c r="L10" s="127" t="s">
@@ -32786,7 +34395,7 @@
       <c r="M10" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="N10" s="262" t="s">
+      <c r="N10" s="138" t="s">
         <v>47</v>
       </c>
     </row>
@@ -32797,19 +34406,19 @@
       <c r="B11" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="257" t="s">
+      <c r="C11" s="133" t="s">
         <v>331</v>
       </c>
       <c r="D11" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="E11" s="258" t="s">
+      <c r="E11" s="134" t="s">
         <v>318</v>
       </c>
       <c r="F11" s="124" t="s">
         <v>332</v>
       </c>
-      <c r="G11" s="259" t="s">
+      <c r="G11" s="135" t="s">
         <v>27</v>
       </c>
       <c r="H11" s="126" t="s">
@@ -32821,7 +34430,7 @@
       <c r="J11" s="72" t="s">
         <v>334</v>
       </c>
-      <c r="K11" s="260" t="s">
+      <c r="K11" s="136" t="s">
         <v>298</v>
       </c>
       <c r="L11" s="127" t="s">
@@ -32830,7 +34439,7 @@
       <c r="M11" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="262" t="s">
+      <c r="N11" s="138" t="s">
         <v>47</v>
       </c>
     </row>
@@ -32841,19 +34450,19 @@
       <c r="B12" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="257" t="s">
+      <c r="C12" s="133" t="s">
         <v>336</v>
       </c>
       <c r="D12" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="E12" s="258" t="s">
+      <c r="E12" s="134" t="s">
         <v>318</v>
       </c>
       <c r="F12" s="124" t="s">
         <v>337</v>
       </c>
-      <c r="G12" s="259" t="s">
+      <c r="G12" s="135" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="126"/>
@@ -32863,14 +34472,14 @@
       <c r="J12" s="72" t="s">
         <v>338</v>
       </c>
-      <c r="K12" s="260" t="s">
+      <c r="K12" s="136" t="s">
         <v>298</v>
       </c>
       <c r="L12" s="127"/>
       <c r="M12" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="262" t="s">
+      <c r="N12" s="138" t="s">
         <v>47</v>
       </c>
     </row>
@@ -32881,19 +34490,19 @@
       <c r="B13" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="257" t="s">
+      <c r="C13" s="133" t="s">
         <v>339</v>
       </c>
       <c r="D13" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="E13" s="258" t="s">
+      <c r="E13" s="134" t="s">
         <v>318</v>
       </c>
       <c r="F13" s="124" t="s">
         <v>340</v>
       </c>
-      <c r="G13" s="259" t="s">
+      <c r="G13" s="135" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="126"/>
@@ -32903,7 +34512,7 @@
       <c r="J13" s="72" t="s">
         <v>341</v>
       </c>
-      <c r="K13" s="260" t="s">
+      <c r="K13" s="136" t="s">
         <v>298</v>
       </c>
       <c r="L13" s="127" t="s">
@@ -32912,7 +34521,7 @@
       <c r="M13" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="N13" s="262" t="s">
+      <c r="N13" s="138" t="s">
         <v>47</v>
       </c>
     </row>
@@ -32923,19 +34532,19 @@
       <c r="B14" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="257" t="s">
+      <c r="C14" s="133" t="s">
         <v>343</v>
       </c>
       <c r="D14" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="E14" s="258" t="s">
+      <c r="E14" s="134" t="s">
         <v>318</v>
       </c>
       <c r="F14" s="124" t="s">
         <v>344</v>
       </c>
-      <c r="G14" s="259" t="s">
+      <c r="G14" s="135" t="s">
         <v>27</v>
       </c>
       <c r="H14" s="124" t="s">
@@ -32947,7 +34556,7 @@
       <c r="J14" s="72" t="s">
         <v>346</v>
       </c>
-      <c r="K14" s="260" t="s">
+      <c r="K14" s="136" t="s">
         <v>298</v>
       </c>
       <c r="L14" s="127" t="s">
@@ -32956,7 +34565,7 @@
       <c r="M14" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="262" t="s">
+      <c r="N14" s="138" t="s">
         <v>47</v>
       </c>
     </row>
@@ -32967,19 +34576,19 @@
       <c r="B15" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="257" t="s">
+      <c r="C15" s="133" t="s">
         <v>348</v>
       </c>
       <c r="D15" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="E15" s="258" t="s">
+      <c r="E15" s="134" t="s">
         <v>318</v>
       </c>
       <c r="F15" s="124" t="s">
         <v>349</v>
       </c>
-      <c r="G15" s="259" t="s">
+      <c r="G15" s="135" t="s">
         <v>27</v>
       </c>
       <c r="H15" s="124" t="s">
@@ -32991,7 +34600,7 @@
       <c r="J15" s="72" t="s">
         <v>351</v>
       </c>
-      <c r="K15" s="260" t="s">
+      <c r="K15" s="136" t="s">
         <v>298</v>
       </c>
       <c r="L15" s="127" t="s">
@@ -33000,7 +34609,7 @@
       <c r="M15" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="262" t="s">
+      <c r="N15" s="138" t="s">
         <v>47</v>
       </c>
     </row>
@@ -33011,7 +34620,7 @@
       <c r="B16" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="C16" s="257" t="s">
+      <c r="C16" s="133" t="s">
         <v>353</v>
       </c>
       <c r="D16" s="127" t="s">
@@ -33023,7 +34632,7 @@
       <c r="F16" s="124" t="s">
         <v>354</v>
       </c>
-      <c r="G16" s="259" t="s">
+      <c r="G16" s="135" t="s">
         <v>27</v>
       </c>
       <c r="H16" s="124" t="s">
@@ -33035,7 +34644,7 @@
       <c r="J16" s="72" t="s">
         <v>356</v>
       </c>
-      <c r="K16" s="260" t="s">
+      <c r="K16" s="136" t="s">
         <v>298</v>
       </c>
       <c r="L16" s="127" t="s">
@@ -33044,7 +34653,7 @@
       <c r="M16" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="N16" s="262" t="s">
+      <c r="N16" s="138" t="s">
         <v>47</v>
       </c>
     </row>
@@ -33055,19 +34664,19 @@
       <c r="B17" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="257" t="s">
+      <c r="C17" s="133" t="s">
         <v>358</v>
       </c>
       <c r="D17" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="E17" s="258" t="s">
+      <c r="E17" s="134" t="s">
         <v>318</v>
       </c>
       <c r="F17" s="124" t="s">
         <v>359</v>
       </c>
-      <c r="G17" s="259" t="s">
+      <c r="G17" s="135" t="s">
         <v>27</v>
       </c>
       <c r="H17" s="124" t="s">
@@ -33079,7 +34688,7 @@
       <c r="J17" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="K17" s="260" t="s">
+      <c r="K17" s="136" t="s">
         <v>298</v>
       </c>
       <c r="L17" s="127" t="s">
@@ -33088,7 +34697,7 @@
       <c r="M17" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="N17" s="262" t="s">
+      <c r="N17" s="138" t="s">
         <v>47</v>
       </c>
     </row>
@@ -33099,19 +34708,19 @@
       <c r="B18" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="C18" s="257" t="s">
+      <c r="C18" s="133" t="s">
         <v>362</v>
       </c>
       <c r="D18" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="E18" s="258" t="s">
+      <c r="E18" s="134" t="s">
         <v>318</v>
       </c>
       <c r="F18" s="124" t="s">
         <v>363</v>
       </c>
-      <c r="G18" s="259" t="s">
+      <c r="G18" s="135" t="s">
         <v>27</v>
       </c>
       <c r="H18" s="124" t="s">
@@ -33123,7 +34732,7 @@
       <c r="J18" s="72" t="s">
         <v>364</v>
       </c>
-      <c r="K18" s="260" t="s">
+      <c r="K18" s="136" t="s">
         <v>298</v>
       </c>
       <c r="L18" s="127" t="s">
@@ -33132,7 +34741,7 @@
       <c r="M18" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="N18" s="262" t="s">
+      <c r="N18" s="138" t="s">
         <v>47</v>
       </c>
     </row>
@@ -33143,34 +34752,34 @@
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="M19:M100">
-    <cfRule type="containsText" dxfId="19" priority="7" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH("PASSED",M19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="26" priority="8" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",M19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:N100">
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="Automation Passed">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="Automation Passed">
       <formula>NOT(ISERROR(SEARCH("Automation Passed",M19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="Not Passed">
+    <cfRule type="containsText" dxfId="24" priority="6" operator="containsText" text="Not Passed">
       <formula>NOT(ISERROR(SEARCH("Not Passed",M19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M18">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH("PASSED",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:N18">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Automation Passed">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="Automation Passed">
       <formula>NOT(ISERROR(SEARCH("Automation Passed",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Not Passed">
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="Not Passed">
       <formula>NOT(ISERROR(SEARCH("Not Passed",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33230,32 +34839,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="22" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="245" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="238"/>
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="247"/>
     </row>
     <row r="2" spans="1:15" ht="5.25" customHeight="1"/>
     <row r="3" spans="1:15" s="13" customFormat="1" ht="21.75" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="231" t="s">
+      <c r="B3" s="240" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="232"/>
+      <c r="C3" s="241"/>
       <c r="D3" s="58" t="s">
         <v>193</v>
       </c>
@@ -33297,10 +34906,10 @@
       <c r="A4" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="245" t="s">
+      <c r="B4" s="254" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="246"/>
+      <c r="C4" s="255"/>
       <c r="D4" s="118" t="s">
         <v>206</v>
       </c>
@@ -33339,10 +34948,10 @@
       <c r="A5" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="243" t="s">
+      <c r="B5" s="252" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="244"/>
+      <c r="C5" s="253"/>
       <c r="D5" s="125" t="s">
         <v>226</v>
       </c>
@@ -33381,10 +34990,10 @@
       <c r="A6" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="241" t="s">
+      <c r="B6" s="250" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="242"/>
+      <c r="C6" s="251"/>
       <c r="D6" s="127" t="s">
         <v>226</v>
       </c>
@@ -33423,10 +35032,10 @@
       <c r="A7" s="124" t="s">
         <v>160</v>
       </c>
-      <c r="B7" s="241" t="s">
+      <c r="B7" s="250" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="242"/>
+      <c r="C7" s="251"/>
       <c r="D7" s="127" t="s">
         <v>226</v>
       </c>
@@ -33465,10 +35074,10 @@
       <c r="A8" s="126" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="239" t="s">
+      <c r="B8" s="248" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="240"/>
+      <c r="C8" s="249"/>
       <c r="D8" s="127" t="s">
         <v>226</v>
       </c>
@@ -33507,10 +35116,10 @@
       <c r="A9" s="126" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="239" t="s">
+      <c r="B9" s="248" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="240"/>
+      <c r="C9" s="249"/>
       <c r="D9" s="127" t="s">
         <v>226</v>
       </c>
@@ -33549,10 +35158,10 @@
       <c r="A10" s="124" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="241" t="s">
+      <c r="B10" s="250" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="242"/>
+      <c r="C10" s="251"/>
       <c r="D10" s="127" t="s">
         <v>226</v>
       </c>
@@ -33591,10 +35200,10 @@
       <c r="A11" s="124" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="241" t="s">
+      <c r="B11" s="250" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="242"/>
+      <c r="C11" s="251"/>
       <c r="D11" s="127" t="s">
         <v>226</v>
       </c>
@@ -33633,10 +35242,10 @@
       <c r="A12" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="B12" s="241" t="s">
+      <c r="B12" s="250" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="242"/>
+      <c r="C12" s="251"/>
       <c r="D12" s="127" t="s">
         <v>226</v>
       </c>
@@ -33673,10 +35282,10 @@
       <c r="A13" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="241" t="s">
+      <c r="B13" s="250" t="s">
         <v>261</v>
       </c>
-      <c r="C13" s="242"/>
+      <c r="C13" s="251"/>
       <c r="D13" s="127" t="s">
         <v>206</v>
       </c>
@@ -33715,10 +35324,10 @@
       <c r="A14" s="126" t="s">
         <v>188</v>
       </c>
-      <c r="B14" s="239" t="s">
+      <c r="B14" s="248" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="240"/>
+      <c r="C14" s="249"/>
       <c r="D14" s="127" t="s">
         <v>226</v>
       </c>
@@ -33757,10 +35366,10 @@
       <c r="A15" s="126" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="241" t="s">
+      <c r="B15" s="250" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="242"/>
+      <c r="C15" s="251"/>
       <c r="D15" s="127" t="s">
         <v>226</v>
       </c>
@@ -33799,10 +35408,10 @@
       <c r="A16" s="126" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="239" t="s">
+      <c r="B16" s="248" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="240"/>
+      <c r="C16" s="249"/>
       <c r="D16" s="127" t="s">
         <v>226</v>
       </c>
@@ -33857,18 +35466,18 @@
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="M4:M98">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH("PASSED",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:N98">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Automation Passed">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Automation Passed">
       <formula>NOT(ISERROR(SEARCH("Automation Passed",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Not Passed">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Not Passed">
       <formula>NOT(ISERROR(SEARCH("Not Passed",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33942,32 +35551,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="57" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="249" t="s">
+      <c r="A1" s="258" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="250"/>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
-      <c r="N1" s="251"/>
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
+      <c r="N1" s="260"/>
     </row>
     <row r="2" spans="1:15" ht="5.25" customHeight="1"/>
     <row r="3" spans="1:15" s="13" customFormat="1" ht="21.75" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="247" t="s">
+      <c r="B3" s="256" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="248"/>
+      <c r="C3" s="257"/>
       <c r="D3" s="58" t="s">
         <v>193</v>
       </c>
@@ -34009,10 +35618,10 @@
       <c r="A4" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="252" t="s">
+      <c r="B4" s="261" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="252"/>
+      <c r="C4" s="261"/>
       <c r="D4" s="109" t="s">
         <v>206</v>
       </c>
@@ -34051,10 +35660,10 @@
       <c r="A5" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="252" t="s">
+      <c r="B5" s="261" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="252"/>
+      <c r="C5" s="261"/>
       <c r="D5" s="110" t="s">
         <v>206</v>
       </c>
@@ -34093,10 +35702,10 @@
       <c r="A6" s="108" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="252" t="s">
+      <c r="B6" s="261" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="252"/>
+      <c r="C6" s="261"/>
       <c r="D6" s="110" t="s">
         <v>226</v>
       </c>
@@ -34135,10 +35744,10 @@
       <c r="A7" s="108" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="252" t="s">
+      <c r="B7" s="261" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="252"/>
+      <c r="C7" s="261"/>
       <c r="D7" s="110" t="s">
         <v>206</v>
       </c>
@@ -34177,10 +35786,10 @@
       <c r="A8" s="108" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="252" t="s">
+      <c r="B8" s="261" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="252"/>
+      <c r="C8" s="261"/>
       <c r="D8" s="110" t="s">
         <v>227</v>
       </c>
@@ -34219,10 +35828,10 @@
       <c r="A9" s="108" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="252" t="s">
+      <c r="B9" s="261" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="252"/>
+      <c r="C9" s="261"/>
       <c r="D9" s="110" t="s">
         <v>206</v>
       </c>
@@ -34261,10 +35870,10 @@
       <c r="A10" s="108" t="s">
         <v>168</v>
       </c>
-      <c r="B10" s="253" t="s">
+      <c r="B10" s="262" t="s">
         <v>275</v>
       </c>
-      <c r="C10" s="252"/>
+      <c r="C10" s="261"/>
       <c r="D10" s="110" t="s">
         <v>206</v>
       </c>
@@ -34313,18 +35922,18 @@
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="M4:M98">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH("PASSED",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:N98">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Automation Passed">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Automation Passed">
       <formula>NOT(ISERROR(SEARCH("Automation Passed",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Not Passed">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Not Passed">
       <formula>NOT(ISERROR(SEARCH("Not Passed",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34366,12 +35975,12 @@
     <tabColor theme="0" tint="-0.34998626667073579"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E25" sqref="E25"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.7109375" defaultRowHeight="12.75"/>
@@ -34394,33 +36003,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="23" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="254" t="s">
+      <c r="A1" s="263" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="255"/>
-      <c r="C1" s="255"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
-      <c r="N1" s="256"/>
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
+      <c r="E1" s="264"/>
+      <c r="F1" s="264"/>
+      <c r="G1" s="264"/>
+      <c r="H1" s="264"/>
+      <c r="I1" s="264"/>
+      <c r="J1" s="264"/>
+      <c r="K1" s="264"/>
+      <c r="L1" s="264"/>
+      <c r="M1" s="264"/>
+      <c r="N1" s="265"/>
     </row>
     <row r="2" spans="1:15" ht="5.25" customHeight="1"/>
     <row r="3" spans="1:15" s="13" customFormat="1" ht="21.75" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="231" t="s">
+      <c r="B3" s="240" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="232"/>
-      <c r="D3" s="58" t="s">
+      <c r="C3" s="275"/>
+      <c r="D3" s="132" t="s">
         <v>193</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -34457,102 +36066,303 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:15" ht="59.25" customHeight="1">
+      <c r="A4" s="266" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="86" t="s">
+      <c r="B4" s="267" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" s="268"/>
+      <c r="D4" s="269" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="270" t="s">
+        <v>368</v>
+      </c>
+      <c r="F4" s="271"/>
+      <c r="G4" s="272" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="134"/>
+      <c r="I4" s="273" t="s">
+        <v>369</v>
+      </c>
+      <c r="J4" s="134" t="s">
+        <v>370</v>
+      </c>
+      <c r="K4" s="266" t="s">
+        <v>371</v>
+      </c>
+      <c r="L4" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="123" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="160.5" customHeight="1">
+      <c r="A5" s="266" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="261" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="261"/>
+      <c r="D5" s="134" t="s">
         <v>206</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6" t="s">
+      <c r="E5" s="134" t="s">
+        <v>368</v>
+      </c>
+      <c r="F5" s="274"/>
+      <c r="G5" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="56" t="s">
+      <c r="H5" s="134"/>
+      <c r="I5" s="134" t="s">
+        <v>373</v>
+      </c>
+      <c r="J5" s="134" t="s">
+        <v>374</v>
+      </c>
+      <c r="K5" s="266" t="s">
+        <v>371</v>
+      </c>
+      <c r="L5" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M5" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>43</v>
+      <c r="N5" s="123" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="46.5" customHeight="1">
+      <c r="A6" s="266" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="261" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="261"/>
+      <c r="D6" s="134" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="134" t="s">
+        <v>375</v>
+      </c>
+      <c r="F6" s="274"/>
+      <c r="G6" s="135" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134" t="s">
+        <v>376</v>
+      </c>
+      <c r="J6" s="134" t="s">
+        <v>377</v>
+      </c>
+      <c r="K6" s="266" t="s">
+        <v>371</v>
+      </c>
+      <c r="L6" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="140" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="123" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="48" customHeight="1">
+      <c r="A7" s="266" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="261" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="261"/>
+      <c r="D7" s="134" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="134" t="s">
+        <v>378</v>
+      </c>
+      <c r="F7" s="274"/>
+      <c r="G7" s="135" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134" t="s">
+        <v>379</v>
+      </c>
+      <c r="J7" s="134" t="s">
+        <v>380</v>
+      </c>
+      <c r="K7" s="266" t="s">
+        <v>371</v>
+      </c>
+      <c r="L7" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="140" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="123" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="87.75" customHeight="1">
+      <c r="A8" s="266" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="261" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="261"/>
+      <c r="D8" s="134" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="134" t="s">
+        <v>381</v>
+      </c>
+      <c r="F8" s="274"/>
+      <c r="G8" s="135" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134" t="s">
+        <v>382</v>
+      </c>
+      <c r="J8" s="134" t="s">
+        <v>383</v>
+      </c>
+      <c r="K8" s="266" t="s">
+        <v>371</v>
+      </c>
+      <c r="L8" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="140" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="123" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="123.75" customHeight="1">
+      <c r="A9" s="266" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="261" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="261"/>
+      <c r="D9" s="134" t="s">
+        <v>226</v>
+      </c>
+      <c r="E9" s="134" t="s">
+        <v>384</v>
+      </c>
+      <c r="F9" s="274"/>
+      <c r="G9" s="135" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134" t="s">
+        <v>385</v>
+      </c>
+      <c r="J9" s="134" t="s">
+        <v>386</v>
+      </c>
+      <c r="K9" s="266" t="s">
+        <v>371</v>
+      </c>
+      <c r="L9" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="140" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="123" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
-  <conditionalFormatting sqref="M4:M100">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="PASSED">
+  <conditionalFormatting sqref="M10:M100">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="PASSED">
+      <formula>NOT(ISERROR(SEARCH("PASSED",M10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",M10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10:N100">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Automation Passed">
+      <formula>NOT(ISERROR(SEARCH("Automation Passed",M10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="Not Passed">
+      <formula>NOT(ISERROR(SEARCH("Not Passed",M10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M9">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH("PASSED",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:N100">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Automation Passed">
+  <conditionalFormatting sqref="M4:N9">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Automation Passed">
       <formula>NOT(ISERROR(SEARCH("Automation Passed",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Not Passed">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Not Passed">
       <formula>NOT(ISERROR(SEARCH("Not Passed",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M4" xr:uid="{DF20EA79-6262-4A60-BF7F-0CEA9922DE9E}">
       <formula1>"PASSED,FAILED,N/A"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M102" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"PASSED,FAILED,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N5" xr:uid="{00000000-0002-0000-0600-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N4:N9" xr:uid="{4D4FF017-DCE8-4ECF-963D-3D6D1B929841}">
       <formula1>"Automation Passed,Not Passed,Not Tested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0600-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D3 D10:D1048576" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="O3" location="'Test Plan'!A1" display="Home" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="L4" r:id="rId1" xr:uid="{7F84EC48-E983-46EB-9E26-480BD01CDCAA}"/>
+    <hyperlink ref="L5" r:id="rId2" xr:uid="{143D429D-2F3A-48FC-9334-8D94FBD970DC}"/>
+    <hyperlink ref="L6" r:id="rId3" xr:uid="{7FDB63B6-53DA-4F26-B56C-014C1656C54B}"/>
+    <hyperlink ref="L7" r:id="rId4" xr:uid="{F98AE8A5-863C-4C37-8FC8-46345F5A24AB}"/>
+    <hyperlink ref="L8" r:id="rId5" xr:uid="{C445DADD-A857-4C0D-9630-560F955BE303}"/>
+    <hyperlink ref="L9" r:id="rId6" xr:uid="{280A0494-E59C-4AD6-BCD8-9AE2E5F25744}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>